--- a/mitochondria distance/012125_mito_OA/3K_no_OA_analysis_by_image.xlsx
+++ b/mitochondria distance/012125_mito_OA/3K_no_OA_analysis_by_image.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,15 +458,403 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3K_mitotracker_01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+          <t>3K_Lipidtox_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>0.06356427510820459</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1167770419426049</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05385917737277163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_02</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05270306981798424</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1360639360639361</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07546010970624986</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_03</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.003101212292077812</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1140822359580758</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08414858247559563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_04</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05477855477855478</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.141895030190432</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04071165250841481</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0.05889540566959922</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04595182335229173</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_06</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3157560355781449</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1491644316071797</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05672070681077371</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_07</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01126055677197373</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1928489920121719</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.08594620623237256</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_08</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01326259946949602</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1994346733668342</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.04936305732484077</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_09</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3517915309446254</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3332412268582481</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.148527937289217</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.09229429690901175</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1189244132323046</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06126410110473855</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2523868825238688</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1228262859234853</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07740070214084119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1007101355713363</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1252828054298643</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.05742032271733031</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08131337518107194</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06432742720136893</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3381615598885794</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2082387285111904</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1146708434192415</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6088992974238876</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.442464161177838</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1687424668541583</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5042224810716366</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5774875020158039</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1071809531936681</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1181056037652596</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1669742437615341</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.05224582582111782</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0001832508704416346</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1889460154241645</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.07587843439974841</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.08739215140551071</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03394659719960925</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_20</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2129032258064516</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.08503958503958504</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0503819946314268</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_21</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02722323049001815</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.139049069742139</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03656144105582308</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_22</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01932858596134283</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1527686583497483</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.04510222344599711</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_23</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.2217829238444884</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05592658679581953</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_24</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.04083266613290633</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1334973854198708</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.02107995188959929</v>
       </c>
     </row>
   </sheetData>
